--- a/data/cp_acv.xlsx
+++ b/data/cp_acv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.8869578320265512</v>
+        <v>0.8963716532930801</v>
       </c>
       <c r="D2">
-        <v>0.8707173030708301</v>
+        <v>0.01418168075414624</v>
       </c>
       <c r="E2">
-        <v>0.8866370646682515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.8618805116389927</v>
+      </c>
+      <c r="F2">
+        <v>0.01526124878464865</v>
+      </c>
+      <c r="G2">
+        <v>0.8828698922168373</v>
+      </c>
+      <c r="H2">
+        <v>0.008903436424854983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.8329288387962948</v>
+        <v>0.8940939064113766</v>
       </c>
       <c r="D3">
-        <v>0.8239256233622111</v>
+        <v>0.01497031799816278</v>
       </c>
       <c r="E3">
-        <v>0.8416147790973503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.8470774079076296</v>
+      </c>
+      <c r="F3">
+        <v>0.01521333570096997</v>
+      </c>
+      <c r="G3">
+        <v>0.8836829003469188</v>
+      </c>
+      <c r="H3">
+        <v>0.0111347615877996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.903038753353183</v>
+        <v>0.9075980508990759</v>
       </c>
       <c r="D4">
-        <v>0.9102736093829626</v>
+        <v>0.009607903883623715</v>
       </c>
       <c r="E4">
-        <v>0.8916239623563984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.9132880485156644</v>
+      </c>
+      <c r="F4">
+        <v>0.008550403809273209</v>
+      </c>
+      <c r="G4">
+        <v>0.8926310214242207</v>
+      </c>
+      <c r="H4">
+        <v>0.00673597456475664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.8765075419131705</v>
+        <v>0.8849853022960197</v>
       </c>
       <c r="D5">
-        <v>0.9030382359864759</v>
+        <v>0.00847557872017886</v>
       </c>
       <c r="E5">
-        <v>0.8728082406169081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.9053195095468871</v>
+      </c>
+      <c r="F5">
+        <v>0.009836847538239237</v>
+      </c>
+      <c r="G5">
+        <v>0.8766870580757924</v>
+      </c>
+      <c r="H5">
+        <v>0.009548536314710683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.7649114138856051</v>
+        <v>0.8609064908238659</v>
       </c>
       <c r="D6">
-        <v>0.7888732529173015</v>
+        <v>0.0199154593978885</v>
       </c>
       <c r="E6">
-        <v>0.7793869463206172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.8303199067821296</v>
+      </c>
+      <c r="F6">
+        <v>0.01395096674585964</v>
+      </c>
+      <c r="G6">
+        <v>0.8353714149519347</v>
+      </c>
+      <c r="H6">
+        <v>0.01252498560581758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.7377416425875578</v>
+        <v>0.9061306639125023</v>
       </c>
       <c r="D7">
-        <v>0.785331489783301</v>
+        <v>0.01488579099252658</v>
       </c>
       <c r="E7">
-        <v>0.7665261153779493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.8859569396996901</v>
+      </c>
+      <c r="F7">
+        <v>0.01150476698773702</v>
+      </c>
+      <c r="G7">
+        <v>0.8940939064113766</v>
+      </c>
+      <c r="H7">
+        <v>0.0106833198313767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.8393651393139201</v>
+        <v>0.9100362808188341</v>
       </c>
       <c r="D8">
-        <v>0.8554407576318056</v>
+        <v>0.01560561907500342</v>
       </c>
       <c r="E8">
-        <v>0.8449904675184248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.9089884704829359</v>
-      </c>
-      <c r="D9">
-        <v>0.9025557915322591</v>
-      </c>
-      <c r="E9">
-        <v>0.8996630649321086</v>
+        <v>0.9067797462990915</v>
+      </c>
+      <c r="F8">
+        <v>0.01216272902618992</v>
+      </c>
+      <c r="G8">
+        <v>0.8983255210402266</v>
+      </c>
+      <c r="H8">
+        <v>0.01092884308976276</v>
       </c>
     </row>
   </sheetData>
